--- a/biology/Médecine/Jacques_Genest_(médecin)/Jacques_Genest_(médecin).xlsx
+++ b/biology/Médecine/Jacques_Genest_(médecin)/Jacques_Genest_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jacques_Genest_(m%C3%A9decin)</t>
+          <t>Jacques_Genest_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Dr. Jacques Genest est un médecin québécois né à Montréal le 29 mai 1919 et mort dans la même ville le 5 janvier 2018[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Dr. Jacques Genest est un médecin québécois né à Montréal le 29 mai 1919 et mort dans la même ville le 5 janvier 2018.
 Il a mis sur pied le Conseil de la recherche en santé du Québec qui devient par la suite le Fonds de la recherche en santé du Québec. Il fonde ensuite l'Institut de recherches cliniques de Montréal. Il a travaillé sur l’hypertension artérielle.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jacques_Genest_(m%C3%A9decin)</t>
+          <t>Jacques_Genest_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après ses années au collège Jean-de-Brébeuf, Jacques Genest entame ses études de médecine à l'Université de Montréal. Il complète sa résidence en médecine interne et en pathologie à l’Hôtel-Dieu, avant d'aller à l’Hôpital Johns-Hopkins de Baltimore pour son fellowship en recherche. Il entrera au Rockefeller Hospital for Medical Research de New York en tant qu'assistant en médecine et associé en recherche.
 À son retour au Québec, il est mandaté par le gouvernement pour étudier l'état de la recherche dans la province. À la suite de visites dans de grandes universités et centres de recherche européens et américains, il en vient à la conclusion que le Québec est en retard dans ce secteur.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jacques_Genest_(m%C3%A9decin)</t>
+          <t>Jacques_Genest_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Le scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son intérêt pour l'hypertension artérielle l’amène à comprendre le rôle et les interactions du sodium, de l'aldostérone, et de l'angiotensine II dans le système rénine-angiotensine. Il établit des tests de mesure de l'activité de la rénine dans le plasma, molécule importante dans le diagnostic de l'hypertension rénovasculaire et les probabilités de succès d'une intervention chirurgicale.
 De plus, il travaille sur le facteur natriurétique présent dans les oreillettes. Cette maladie fatale, l'hypertension artérielle, peut désormais être maîtrisée, entre autres grâce aux avancées de Dr Genest qui ont mené au développement de médicaments contrôlant la tension artérielle chez ces patients.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jacques_Genest_(m%C3%A9decin)</t>
+          <t>Jacques_Genest_(médecin)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il reçoit 12 doctorats honorifiques et de nombreux prix. Il est professeur émérite de l'Université de Montréal et membre émérite de l'ACFAS.
 1963 - Prix Gairdner
@@ -599,9 +617,43 @@
 1996 - Prix Armand-Frappier
 1998 - Prix Marcel-Piché
 2000 - Membre des Grands Montréalais
-2001 - Prix FCAR
-Œuvres choisies
-M. Cantin &amp; J. Genest, The heart as an endocrine gland. Hypertension. 1987 Nov;10(5 Pt 2):I118-21.
+2001 - Prix FCAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jacques_Genest_(médecin)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Genest_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Honneurs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Œuvres choisies</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>M. Cantin &amp; J. Genest, The heart as an endocrine gland. Hypertension. 1987 Nov;10(5 Pt 2):I118-21.
 J. Genest &amp; M. Cantin, Atrial natriuretic factor. Circulation. 1987 Jan;75(1 Pt 2):I118-24.
 D. Ganten, J.L. Minnich, P. Granger, K. Hayduk, H.M. Brecht, A. Barbeau, R. Boucher &amp; J. Genest, Angiotensin-forming enzyme in brain tissue. Science. 1971 Jul 2;173(991):64-5.
 J. Genest, W. Nowaczynski, R. Boucher &amp; O. Kuchel, Role of the adrenal cortex and sodium in the pathogenesis of human hypertension. Can Med Assoc J. 1978 Mar 4;118(5):538-49.
